--- a/BackTest/2020-01-26 BackTest REP.xlsx
+++ b/BackTest/2020-01-26 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2021.807125692897</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1939.647425692897</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15760</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>1945.738525692897</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15750</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>1966.428925692897</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15760</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,15 +601,17 @@
         <v>1942.078125692897</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>15770</v>
       </c>
-      <c r="J6" t="n">
-        <v>15770</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,17 +640,15 @@
         <v>1942.078125692897</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>15710</v>
       </c>
-      <c r="J7" t="n">
-        <v>15770</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -661,17 +679,15 @@
         <v>1942.078125692897</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>15710</v>
       </c>
-      <c r="J8" t="n">
-        <v>15770</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -702,15 +718,17 @@
         <v>1942.078125692897</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>15710</v>
       </c>
-      <c r="J9" t="n">
-        <v>15710</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -739,17 +757,15 @@
         <v>1974.078725692897</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>15710</v>
       </c>
-      <c r="J10" t="n">
-        <v>15710</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -780,17 +796,15 @@
         <v>2306.799425692897</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>16010</v>
       </c>
-      <c r="J11" t="n">
-        <v>15710</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -821,15 +835,17 @@
         <v>2671.323625692897</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>16160</v>
       </c>
-      <c r="J12" t="n">
-        <v>16160</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -858,17 +874,15 @@
         <v>2745.505525692897</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>16300</v>
       </c>
-      <c r="J13" t="n">
-        <v>16160</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -902,12 +916,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>16160</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -942,7 +954,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -975,7 +991,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,7 +1028,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,7 +1065,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1070,15 +1098,15 @@
         <v>2898.758425692897</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>16360</v>
-      </c>
-      <c r="J19" t="n">
-        <v>16360</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1107,17 +1135,13 @@
         <v>3050.213125692897</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16360</v>
-      </c>
-      <c r="J20" t="n">
-        <v>16360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1148,14 +1172,10 @@
         <v>3050.213125692897</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16380</v>
-      </c>
-      <c r="J21" t="n">
-        <v>16360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1189,14 +1209,10 @@
         <v>3053.268525692897</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16380</v>
-      </c>
-      <c r="J22" t="n">
-        <v>16360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1230,14 +1246,10 @@
         <v>3176.860425692897</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>16390</v>
-      </c>
-      <c r="J23" t="n">
-        <v>16360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1274,9 +1286,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1310,14 +1320,12 @@
         <v>3023.854225692897</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>16310</v>
       </c>
-      <c r="J25" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1351,12 +1359,12 @@
         <v>2993.447025692897</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>16390</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1390,14 +1398,12 @@
         <v>2999.282325692897</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>16300</v>
       </c>
-      <c r="J27" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1431,12 +1437,12 @@
         <v>2964.943625692898</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>16400</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1473,9 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1512,9 +1516,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1551,9 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1590,9 +1590,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1629,9 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1665,12 +1661,12 @@
         <v>2972.375025692897</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>16390</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1704,12 +1700,12 @@
         <v>2972.375025692897</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>16440</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1743,12 +1739,12 @@
         <v>2972.375025692897</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>16440</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1782,12 +1778,12 @@
         <v>2807.303125692898</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16440</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1821,12 +1817,12 @@
         <v>2839.877325692898</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16430</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1860,12 +1856,12 @@
         <v>2836.346325692898</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>16440</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1899,12 +1895,12 @@
         <v>2836.346325692898</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16430</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1938,12 +1934,12 @@
         <v>2959.419825692898</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16430</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1977,12 +1973,12 @@
         <v>2934.817725692898</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16440</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2016,12 +2012,12 @@
         <v>2934.817725692898</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16400</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2055,12 +2051,12 @@
         <v>2934.848625692898</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>16400</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2094,12 +2090,12 @@
         <v>2934.848625692898</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>16440</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2133,12 +2129,12 @@
         <v>2892.824825692898</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>16440</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2172,12 +2168,12 @@
         <v>2880.074825692898</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16430</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2211,12 +2207,12 @@
         <v>2880.115725692898</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>16350</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2250,12 +2246,12 @@
         <v>2880.115725692898</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>16390</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2289,12 +2285,12 @@
         <v>2969.499425692898</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16390</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2328,12 +2324,12 @@
         <v>2969.560252943506</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>16430</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2367,12 +2363,12 @@
         <v>2969.528452943506</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>16440</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2406,12 +2402,12 @@
         <v>2966.022352943506</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>16430</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2445,12 +2441,12 @@
         <v>2966.022352943506</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2484,12 +2480,12 @@
         <v>2966.053752943506</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2523,12 +2519,12 @@
         <v>2966.053752943506</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>16390</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2562,12 +2558,12 @@
         <v>2923.490952943505</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16390</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2601,12 +2597,12 @@
         <v>2955.865752943505</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>16280</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2640,12 +2636,12 @@
         <v>2955.865752943505</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>16390</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2679,12 +2675,12 @@
         <v>4417.651243321094</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>16360</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>16390</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2721,9 +2717,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2760,9 +2754,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2799,9 +2791,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2838,9 +2828,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2877,9 +2865,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,9 +2902,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2955,9 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2994,9 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3033,9 +3013,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3072,9 +3050,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3111,9 +3087,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3150,9 +3124,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3189,9 +3161,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3228,9 +3198,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3267,9 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3306,9 +3272,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3345,9 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3384,9 +3346,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3423,9 +3383,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3459,19 +3417,17 @@
         <v>10655.56454091163</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>16360</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.040843520782396</v>
+        <v>1</v>
       </c>
       <c r="M80" t="inlineStr"/>
     </row>
@@ -3502,7 +3458,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3535,7 +3495,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3568,7 +3532,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3601,7 +3569,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3634,7 +3606,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3667,7 +3643,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3700,7 +3680,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3733,7 +3717,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3766,7 +3754,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3799,7 +3791,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3832,7 +3828,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3865,7 +3865,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3898,7 +3902,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3931,7 +3939,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3964,7 +3976,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3997,7 +4013,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4030,7 +4050,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4087,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4096,7 +4124,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4129,7 +4161,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4162,7 +4198,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4191,11 +4231,15 @@
         <v>10654.82066577185</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4224,11 +4268,15 @@
         <v>10357.62916577184</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4257,11 +4305,15 @@
         <v>10357.62916577184</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4294,7 +4346,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4327,7 +4383,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4360,7 +4420,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4393,7 +4457,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4426,7 +4494,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4459,7 +4531,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4492,7 +4568,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4525,7 +4605,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4558,7 +4642,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4591,7 +4679,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4624,7 +4716,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4657,7 +4753,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4690,7 +4790,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4723,7 +4827,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4756,7 +4864,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4789,7 +4901,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4822,7 +4938,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4855,7 +4975,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4888,7 +5012,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4921,7 +5049,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4954,7 +5086,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4987,7 +5123,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5020,7 +5160,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5053,7 +5197,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5086,7 +5234,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5115,11 +5267,15 @@
         <v>16267.18074691907</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5148,11 +5304,15 @@
         <v>16216.14094691907</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5185,7 +5345,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5214,11 +5378,15 @@
         <v>15470.72934691907</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5251,7 +5419,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5284,7 +5456,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5317,7 +5493,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5350,7 +5530,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5379,11 +5563,15 @@
         <v>15972.20397131364</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5412,11 +5600,15 @@
         <v>16760.36427131364</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5449,7 +5641,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5482,7 +5678,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5515,7 +5715,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5548,7 +5752,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5581,7 +5789,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5614,7 +5826,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5647,7 +5863,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5680,7 +5900,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5713,7 +5937,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5746,7 +5974,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5779,7 +6011,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5812,7 +6048,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5845,7 +6085,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5878,7 +6122,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5911,7 +6159,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5944,7 +6196,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5977,7 +6233,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6010,7 +6270,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6043,7 +6307,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6076,7 +6344,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6109,7 +6381,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6142,7 +6418,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6175,7 +6455,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6208,7 +6492,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6241,7 +6529,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6274,7 +6566,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6307,7 +6603,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6340,7 +6640,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6677,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6406,7 +6714,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6439,7 +6751,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6468,11 +6784,15 @@
         <v>16967.89333471952</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6501,11 +6821,15 @@
         <v>16912.78213471952</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6534,11 +6858,15 @@
         <v>17007.32963471952</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6567,11 +6895,15 @@
         <v>17135.48493471952</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6600,11 +6932,15 @@
         <v>17376.97026093035</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6633,11 +6969,15 @@
         <v>16688.19878714118</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6666,14 +7006,16 @@
         <v>17183.68288714118</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
@@ -6699,7 +7041,7 @@
         <v>17325.30408714118</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6732,7 +7074,7 @@
         <v>17138.40508008236</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6765,7 +7107,7 @@
         <v>17138.40508008236</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6798,7 +7140,7 @@
         <v>16303.51098008236</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6831,7 +7173,7 @@
         <v>16367.62818008236</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6930,7 +7272,7 @@
         <v>15698.11218008236</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6963,7 +7305,7 @@
         <v>15081.34058008236</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6996,7 +7338,7 @@
         <v>15081.34058008236</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7029,7 +7371,7 @@
         <v>15134.79958008236</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7062,7 +7404,7 @@
         <v>15002.19648008236</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7095,7 +7437,7 @@
         <v>14895.63798008236</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7128,7 +7470,7 @@
         <v>14010.68868008236</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7161,7 +7503,7 @@
         <v>14005.09798008236</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7194,7 +7536,7 @@
         <v>14055.01928008236</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7227,7 +7569,7 @@
         <v>14055.01928008236</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7260,7 +7602,7 @@
         <v>14061.71244597831</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7293,7 +7635,7 @@
         <v>14021.12504597831</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7326,7 +7668,7 @@
         <v>14211.80014597831</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7359,7 +7701,7 @@
         <v>14232.79834597831</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7392,7 +7734,7 @@
         <v>14007.53144597831</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7425,7 +7767,7 @@
         <v>13940.15414597831</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7491,7 +7833,7 @@
         <v>13671.43804597831</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7557,7 +7899,7 @@
         <v>14038.45104597831</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7590,7 +7932,7 @@
         <v>14038.45104597831</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8184,7 +8526,7 @@
         <v>13872.77576573306</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8217,7 +8559,7 @@
         <v>13872.77576573306</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8580,7 +8922,7 @@
         <v>14830.74248401749</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8613,7 +8955,7 @@
         <v>14984.62398401749</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8646,7 +8988,7 @@
         <v>14646.19498401749</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8679,7 +9021,7 @@
         <v>14670.87418401749</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8712,7 +9054,7 @@
         <v>15778.06370240719</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8745,7 +9087,7 @@
         <v>15404.65330240719</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8778,7 +9120,7 @@
         <v>15642.49885016504</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8811,7 +9153,7 @@
         <v>15497.2890472674</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8844,7 +9186,7 @@
         <v>15764.8994472674</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8877,7 +9219,7 @@
         <v>15974.01806695332</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8910,7 +9252,7 @@
         <v>16243.07789363216</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8943,7 +9285,7 @@
         <v>18432.41284310114</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8976,7 +9318,7 @@
         <v>17238.23764443447</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9009,7 +9351,7 @@
         <v>16993.4521234228</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9042,7 +9384,7 @@
         <v>17198.6282234228</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9075,7 +9417,7 @@
         <v>17329.6739234228</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9108,7 +9450,7 @@
         <v>17329.6739234228</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9141,7 +9483,7 @@
         <v>18007.63285174138</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9174,7 +9516,7 @@
         <v>17968.08395174138</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9207,7 +9549,7 @@
         <v>17875.82215174138</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9240,7 +9582,7 @@
         <v>17232.97065174138</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9273,7 +9615,7 @@
         <v>17329.92045174138</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9306,7 +9648,7 @@
         <v>17260.51624268604</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9339,7 +9681,7 @@
         <v>16993.14064268604</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9372,7 +9714,7 @@
         <v>17280.53554268604</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9405,7 +9747,7 @@
         <v>16992.45514268604</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9438,7 +9780,7 @@
         <v>16992.45514268604</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9471,7 +9813,7 @@
         <v>17214.01264268604</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9504,7 +9846,7 @@
         <v>17341.38554268604</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9537,7 +9879,7 @@
         <v>18090.62084268604</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9570,7 +9912,7 @@
         <v>17040.59854268604</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9603,7 +9945,7 @@
         <v>17412.56014268604</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9636,7 +9978,7 @@
         <v>17145.70684268604</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9669,7 +10011,7 @@
         <v>17354.69168781482</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9702,7 +10044,7 @@
         <v>17193.29718781482</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9768,7 +10110,7 @@
         <v>16701.49708781482</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9834,7 +10176,7 @@
         <v>14855.75528781482</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9867,7 +10209,7 @@
         <v>14970.97268781482</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9900,7 +10242,7 @@
         <v>15375.37178781482</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9933,7 +10275,7 @@
         <v>15375.37178781482</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9966,7 +10308,7 @@
         <v>15313.95288781482</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10032,7 +10374,7 @@
         <v>13843.54948781482</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10065,7 +10407,7 @@
         <v>13617.34598781482</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10098,7 +10440,7 @@
         <v>13812.36758781482</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10131,7 +10473,7 @@
         <v>13941.6704023751</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10164,7 +10506,7 @@
         <v>13943.11892568512</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10197,7 +10539,7 @@
         <v>14189.43910352107</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10230,7 +10572,7 @@
         <v>13854.80200352107</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10263,7 +10605,7 @@
         <v>13044.93380352107</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10296,7 +10638,7 @@
         <v>12553.50210352107</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10329,7 +10671,7 @@
         <v>12564.84990352107</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10362,7 +10704,7 @@
         <v>12616.68840352107</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10395,7 +10737,7 @@
         <v>12630.73110352107</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10428,7 +10770,7 @@
         <v>13905.75969608308</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10461,7 +10803,7 @@
         <v>13760.52259608308</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10494,7 +10836,7 @@
         <v>13838.3829950551</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10527,7 +10869,7 @@
         <v>13776.0520950551</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10560,7 +10902,7 @@
         <v>13844.2841950551</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10593,7 +10935,7 @@
         <v>13642.1490950551</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10626,7 +10968,7 @@
         <v>13956.1164950551</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10692,7 +11034,7 @@
         <v>13912.06269837318</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10725,7 +11067,7 @@
         <v>14234.32320169125</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10758,7 +11100,7 @@
         <v>15021.50720169125</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10824,7 +11166,7 @@
         <v>14982.81830169125</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10857,7 +11199,7 @@
         <v>14842.47900169125</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10890,7 +11232,7 @@
         <v>14922.29273472087</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10989,7 +11331,7 @@
         <v>14741.13622275505</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11022,7 +11364,7 @@
         <v>14751.13622275505</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11088,7 +11430,7 @@
         <v>14814.51420566104</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11121,7 +11463,7 @@
         <v>14814.51420566104</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11154,7 +11496,7 @@
         <v>14814.51420566104</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11187,7 +11529,7 @@
         <v>14704.29282275505</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11286,7 +11628,7 @@
         <v>14674.61695278957</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11352,7 +11694,7 @@
         <v>14552.46455278958</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11385,7 +11727,7 @@
         <v>14825.30225278958</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11418,7 +11760,7 @@
         <v>14784.08795278958</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11550,7 +11892,7 @@
         <v>15392.03205685462</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11583,7 +11925,7 @@
         <v>15391.97395110215</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11616,7 +11958,7 @@
         <v>15391.97395110215</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11649,7 +11991,7 @@
         <v>15390.04495110215</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11715,7 +12057,7 @@
         <v>15141.35362524509</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11781,7 +12123,7 @@
         <v>15001.96122524509</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11814,7 +12156,7 @@
         <v>15084.66122524509</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11880,7 +12222,7 @@
         <v>15173.99132524509</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12078,7 +12420,7 @@
         <v>15796.77182524509</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12309,7 +12651,7 @@
         <v>15849.94412524509</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12342,7 +12684,7 @@
         <v>15667.84702524509</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12375,7 +12717,7 @@
         <v>15666.52812524509</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12408,7 +12750,7 @@
         <v>15666.52812524509</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12441,7 +12783,7 @@
         <v>15671.73202524509</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12474,7 +12816,7 @@
         <v>15867.21422524509</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12507,7 +12849,7 @@
         <v>15809.41252524509</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12540,7 +12882,7 @@
         <v>15536.11302524509</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12573,7 +12915,7 @@
         <v>15549.10442524509</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12606,7 +12948,7 @@
         <v>15537.10442524509</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12639,7 +12981,7 @@
         <v>15537.10442524509</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12672,7 +13014,7 @@
         <v>15537.79210432819</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12705,7 +13047,7 @@
         <v>15536.30150432819</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12738,7 +13080,7 @@
         <v>15491.44190432819</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12804,7 +13146,7 @@
         <v>15014.32190432819</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12837,7 +13179,7 @@
         <v>14982.72650432819</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12870,7 +13212,7 @@
         <v>14985.72500432819</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12903,7 +13245,7 @@
         <v>14985.72500432819</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12936,7 +13278,7 @@
         <v>14645.41670432819</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12969,7 +13311,7 @@
         <v>14645.41670432819</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13002,7 +13344,7 @@
         <v>14616.23290432818</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13035,7 +13377,7 @@
         <v>14588.11120432818</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13068,7 +13410,7 @@
         <v>14578.60630432818</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13101,7 +13443,7 @@
         <v>13791.03160432819</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13134,7 +13476,7 @@
         <v>13791.03160432819</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13167,7 +13509,7 @@
         <v>13791.03160432819</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13200,7 +13542,7 @@
         <v>13855.22190432819</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13233,7 +13575,7 @@
         <v>13875.22190432819</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13266,7 +13608,7 @@
         <v>13691.57790432819</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13299,7 +13641,7 @@
         <v>13625.95480432818</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13332,7 +13674,7 @@
         <v>13632.41660432818</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13365,7 +13707,7 @@
         <v>13588.01870432818</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13431,7 +13773,7 @@
         <v>13400.11660432818</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13497,7 +13839,7 @@
         <v>13401.94510432818</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -17127,7 +17469,7 @@
         <v>8824.756036196031</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17160,7 +17502,7 @@
         <v>8821.842283282278</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17457,7 +17799,7 @@
         <v>8554.405683282281</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17490,7 +17832,7 @@
         <v>8542.20568328228</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -22308,10 +22650,14 @@
         <v>4592.719002010494</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>16650</v>
+      </c>
+      <c r="J651" t="n">
+        <v>16650</v>
+      </c>
       <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
@@ -22341,11 +22687,19 @@
         <v>4392.659802010494</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>16560</v>
+      </c>
+      <c r="J652" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22374,11 +22728,19 @@
         <v>4391.479702010494</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>16550</v>
+      </c>
+      <c r="J653" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22407,11 +22769,19 @@
         <v>4391.479702010494</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>16530</v>
+      </c>
+      <c r="J654" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22443,8 +22813,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22476,8 +22852,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22509,8 +22891,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22542,8 +22930,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22575,8 +22969,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22608,8 +23008,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22641,8 +23047,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22674,8 +23086,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22707,8 +23125,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22740,8 +23164,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22773,8 +23203,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22806,8 +23242,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22839,8 +23281,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22872,8 +23320,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22905,8 +23359,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22938,8 +23398,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22971,8 +23437,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23004,8 +23476,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23037,8 +23515,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23070,8 +23554,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23103,8 +23593,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23136,8 +23632,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23169,8 +23671,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23202,8 +23710,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23235,8 +23749,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23268,8 +23788,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23301,8 +23827,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23334,8 +23866,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23367,8 +23905,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23400,8 +23944,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23433,8 +23983,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23466,8 +24022,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23499,8 +24061,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23532,8 +24100,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23565,8 +24139,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23598,8 +24178,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23631,8 +24217,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23664,8 +24256,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23697,8 +24295,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23730,8 +24334,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23763,8 +24373,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23796,8 +24412,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23829,8 +24451,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23862,8 +24490,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23895,8 +24529,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23928,8 +24568,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23961,8 +24607,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23994,8 +24646,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24027,8 +24685,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24057,11 +24721,17 @@
         <v>5370.930791860654</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24093,8 +24763,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24126,8 +24802,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24159,8 +24841,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24192,8 +24880,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24225,8 +24919,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24258,8 +24958,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24291,8 +24997,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24321,11 +25033,17 @@
         <v>7687.460110900103</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24354,11 +25072,17 @@
         <v>6626.226010096429</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24387,11 +25111,17 @@
         <v>6543.647610096429</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24420,11 +25150,17 @@
         <v>7560.779010096429</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24453,11 +25189,17 @@
         <v>7560.779010096429</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24489,8 +25231,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24522,8 +25270,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24555,8 +25309,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24588,8 +25348,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24621,8 +25387,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24654,8 +25426,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24687,8 +25465,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24720,8 +25504,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24753,8 +25543,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24786,8 +25582,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24819,8 +25621,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24852,8 +25660,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24885,8 +25699,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24918,8 +25738,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24951,14 +25777,20 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>16650</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
       <c r="M731" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest REP.xlsx
+++ b/BackTest/2020-01-26 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>1939.647425692897</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -528,12 +522,10 @@
       <c r="I4" t="n">
         <v>15750</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="n">
+        <v>15750</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -567,10 +559,12 @@
       <c r="I5" t="n">
         <v>15760</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>15750</v>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -606,10 +600,12 @@
       <c r="I6" t="n">
         <v>15770</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>15750</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -645,12 +641,10 @@
       <c r="I7" t="n">
         <v>15710</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="n">
+        <v>15710</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,10 +678,12 @@
       <c r="I8" t="n">
         <v>15710</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>15710</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -723,10 +719,12 @@
       <c r="I9" t="n">
         <v>15710</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>15710</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -762,12 +760,10 @@
       <c r="I10" t="n">
         <v>15710</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="n">
+        <v>15710</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,10 +797,12 @@
       <c r="I11" t="n">
         <v>16010</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>15710</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -835,15 +833,15 @@
         <v>2671.323625692897</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16160</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>15710</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -874,17 +872,11 @@
         <v>2745.505525692897</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -917,11 +909,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -954,11 +942,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,11 +975,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1028,11 +1008,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1065,11 +1041,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1102,11 +1074,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1139,11 +1107,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1176,11 +1140,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1213,11 +1173,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1250,11 +1206,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1287,11 +1239,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1320,17 +1268,11 @@
         <v>3023.854225692897</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>16310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1359,17 +1301,11 @@
         <v>2993.447025692897</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>16390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1398,17 +1334,11 @@
         <v>2999.282325692897</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1437,17 +1367,11 @@
         <v>2964.943625692898</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>16400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1480,11 +1404,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1517,11 +1437,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1554,11 +1470,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1591,11 +1503,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1628,11 +1536,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1661,17 +1565,11 @@
         <v>2972.375025692897</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>16390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1700,17 +1598,11 @@
         <v>2972.375025692897</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1739,17 +1631,11 @@
         <v>2972.375025692897</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1778,17 +1664,11 @@
         <v>2807.303125692898</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>16440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1817,17 +1697,11 @@
         <v>2839.877325692898</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16430</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1856,17 +1730,11 @@
         <v>2836.346325692898</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>16440</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1895,17 +1763,11 @@
         <v>2836.346325692898</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1934,17 +1796,11 @@
         <v>2959.419825692898</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1973,17 +1829,11 @@
         <v>2934.817725692898</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16440</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2012,17 +1862,11 @@
         <v>2934.817725692898</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16400</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2051,17 +1895,11 @@
         <v>2934.848625692898</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>16400</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2090,17 +1928,11 @@
         <v>2934.848625692898</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>16440</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2129,17 +1961,11 @@
         <v>2892.824825692898</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16440</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2168,17 +1994,11 @@
         <v>2880.074825692898</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16430</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2207,17 +2027,11 @@
         <v>2880.115725692898</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>16350</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2246,17 +2060,11 @@
         <v>2880.115725692898</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>16390</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2285,17 +2093,11 @@
         <v>2969.499425692898</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>16390</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2324,17 +2126,11 @@
         <v>2969.560252943506</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16430</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2363,17 +2159,11 @@
         <v>2969.528452943506</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16440</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2402,17 +2192,11 @@
         <v>2966.022352943506</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>16430</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2441,17 +2225,11 @@
         <v>2966.022352943506</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>16340</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2480,17 +2258,11 @@
         <v>2966.053752943506</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16340</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2519,17 +2291,11 @@
         <v>2966.053752943506</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>16390</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2558,17 +2324,11 @@
         <v>2923.490952943505</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>16390</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2597,17 +2357,11 @@
         <v>2955.865752943505</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2636,17 +2390,11 @@
         <v>2955.865752943505</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>16390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2675,17 +2423,11 @@
         <v>4417.651243321094</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>16390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2718,11 +2460,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2755,11 +2493,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2792,11 +2526,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2829,11 +2559,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2866,11 +2592,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2903,11 +2625,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2940,11 +2658,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +2691,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3014,11 +2724,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3051,11 +2757,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3088,11 +2790,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3125,11 +2823,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3162,11 +2856,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3199,11 +2889,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3236,11 +2922,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3273,11 +2955,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3310,11 +2988,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3343,15 +3017,11 @@
         <v>9705.343325692897</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3380,15 +3050,11 @@
         <v>9963.073225692897</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3417,15 +3083,11 @@
         <v>10655.56454091163</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3454,15 +3116,11 @@
         <v>10590.36924091163</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3491,15 +3149,11 @@
         <v>10360.1871889042</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3528,15 +3182,11 @@
         <v>10568.9699889042</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3565,15 +3215,11 @@
         <v>10916.6552889042</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3602,15 +3248,11 @@
         <v>10638.80350794345</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3639,15 +3281,11 @@
         <v>10638.80350794345</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3676,15 +3314,11 @@
         <v>10587.19335829639</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3713,15 +3347,11 @@
         <v>10307.10346989663</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3750,15 +3380,11 @@
         <v>10375.81738883962</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3787,15 +3413,11 @@
         <v>10335.32506577185</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3824,15 +3446,11 @@
         <v>10261.70396577185</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3861,15 +3479,11 @@
         <v>10307.51066577184</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3898,15 +3512,11 @@
         <v>10569.48696577184</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3935,15 +3545,11 @@
         <v>10576.27426577184</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3972,15 +3578,11 @@
         <v>10624.26466577185</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4009,15 +3611,11 @@
         <v>10624.26466577185</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4046,15 +3644,11 @@
         <v>10696.87826577185</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4083,15 +3677,11 @@
         <v>10644.00036577185</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4120,15 +3710,11 @@
         <v>10628.52496577185</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4157,15 +3743,11 @@
         <v>10649.09396577185</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4194,15 +3776,11 @@
         <v>10654.82066577185</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4231,15 +3809,11 @@
         <v>10654.82066577185</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4268,15 +3842,11 @@
         <v>10357.62916577184</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4305,15 +3875,11 @@
         <v>10357.62916577184</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4342,15 +3908,11 @@
         <v>10369.54126577184</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4379,15 +3941,11 @@
         <v>10369.54126577184</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4416,15 +3974,11 @@
         <v>11084.35926577184</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4453,15 +4007,11 @@
         <v>11084.35926577184</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4490,15 +4040,11 @@
         <v>11176.75176577184</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4527,15 +4073,11 @@
         <v>11191.98186577184</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4564,15 +4106,11 @@
         <v>11543.39756577184</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4601,15 +4139,11 @@
         <v>11684.74526577184</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4638,15 +4172,11 @@
         <v>11761.74506577184</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4679,11 +4209,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4716,11 +4242,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4753,11 +4275,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4790,11 +4308,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4823,15 +4337,11 @@
         <v>12442.26476623723</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4860,15 +4370,11 @@
         <v>13151.65984847219</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4897,15 +4403,11 @@
         <v>12870.55014847219</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4934,15 +4436,11 @@
         <v>12914.88544847219</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4971,15 +4469,11 @@
         <v>13230.52044847219</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5008,15 +4502,11 @@
         <v>13230.52044847219</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5045,15 +4535,11 @@
         <v>13301.59734847219</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5086,11 +4572,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5123,11 +4605,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5160,11 +4638,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5197,11 +4671,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5234,11 +4704,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5271,11 +4737,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5308,11 +4770,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5345,11 +4803,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5382,11 +4836,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5419,11 +4869,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5456,11 +4902,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5493,11 +4935,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5530,11 +4968,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5567,11 +5001,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5604,11 +5034,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5641,11 +5067,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5678,11 +5100,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5715,11 +5133,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5752,11 +5166,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5789,11 +5199,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5826,11 +5232,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5265,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5900,11 +5298,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5937,11 +5331,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5974,11 +5364,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +5397,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6048,11 +5430,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6085,11 +5463,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6122,11 +5496,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6159,11 +5529,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6196,11 +5562,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6233,11 +5595,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6270,11 +5628,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6307,11 +5661,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +5694,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +5727,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6418,11 +5760,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6455,11 +5793,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6492,11 +5826,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6529,11 +5859,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6566,11 +5892,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6603,11 +5925,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6640,11 +5958,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6677,11 +5991,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6714,11 +6024,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6751,11 +6057,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6788,11 +6090,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6825,11 +6123,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6862,11 +6156,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6899,11 +6189,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6936,11 +6222,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6973,11 +6255,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7006,16 +6284,14 @@
         <v>17183.68288714118</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
       <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
@@ -7041,7 +6317,7 @@
         <v>17325.30408714118</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7074,7 +6350,7 @@
         <v>17138.40508008236</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7140,7 +6416,7 @@
         <v>16303.51098008236</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7272,7 +6548,7 @@
         <v>15698.11218008236</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7305,7 +6581,7 @@
         <v>15081.34058008236</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7338,7 +6614,7 @@
         <v>15081.34058008236</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7371,7 +6647,7 @@
         <v>15134.79958008236</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7404,7 +6680,7 @@
         <v>15002.19648008236</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7437,7 +6713,7 @@
         <v>14895.63798008236</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7470,7 +6746,7 @@
         <v>14010.68868008236</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7503,7 +6779,7 @@
         <v>14005.09798008236</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7536,7 +6812,7 @@
         <v>14055.01928008236</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7734,7 +7010,7 @@
         <v>14007.53144597831</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7767,7 +7043,7 @@
         <v>13940.15414597831</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7833,7 +7109,7 @@
         <v>13671.43804597831</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7899,7 +7175,7 @@
         <v>14038.45104597831</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7932,7 +7208,7 @@
         <v>14038.45104597831</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -9021,7 +8297,7 @@
         <v>14670.87418401749</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9087,7 +8363,7 @@
         <v>15404.65330240719</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9153,7 +8429,7 @@
         <v>15497.2890472674</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9186,7 +8462,7 @@
         <v>15764.8994472674</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9219,7 +8495,7 @@
         <v>15974.01806695332</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9252,7 +8528,7 @@
         <v>16243.07789363216</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9285,7 +8561,7 @@
         <v>18432.41284310114</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9318,7 +8594,7 @@
         <v>17238.23764443447</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9351,7 +8627,7 @@
         <v>16993.4521234228</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9384,7 +8660,7 @@
         <v>17198.6282234228</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9417,7 +8693,7 @@
         <v>17329.6739234228</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9450,7 +8726,7 @@
         <v>17329.6739234228</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9483,7 +8759,7 @@
         <v>18007.63285174138</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9516,7 +8792,7 @@
         <v>17968.08395174138</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9549,7 +8825,7 @@
         <v>17875.82215174138</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9582,7 +8858,7 @@
         <v>17232.97065174138</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9615,7 +8891,7 @@
         <v>17329.92045174138</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9648,7 +8924,7 @@
         <v>17260.51624268604</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9681,7 +8957,7 @@
         <v>16993.14064268604</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9714,7 +8990,7 @@
         <v>17280.53554268604</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9747,7 +9023,7 @@
         <v>16992.45514268604</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9780,7 +9056,7 @@
         <v>16992.45514268604</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9813,7 +9089,7 @@
         <v>17214.01264268604</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9846,7 +9122,7 @@
         <v>17341.38554268604</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9879,7 +9155,7 @@
         <v>18090.62084268604</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9912,7 +9188,7 @@
         <v>17040.59854268604</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9945,7 +9221,7 @@
         <v>17412.56014268604</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9978,7 +9254,7 @@
         <v>17145.70684268604</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10011,7 +9287,7 @@
         <v>17354.69168781482</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10044,7 +9320,7 @@
         <v>17193.29718781482</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10110,7 +9386,7 @@
         <v>16701.49708781482</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10176,7 +9452,7 @@
         <v>14855.75528781482</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10209,7 +9485,7 @@
         <v>14970.97268781482</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10242,7 +9518,7 @@
         <v>15375.37178781482</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10275,7 +9551,7 @@
         <v>15375.37178781482</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10308,7 +9584,7 @@
         <v>15313.95288781482</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10374,7 +9650,7 @@
         <v>13843.54948781482</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10407,7 +9683,7 @@
         <v>13617.34598781482</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10440,7 +9716,7 @@
         <v>13812.36758781482</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10473,7 +9749,7 @@
         <v>13941.6704023751</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10506,7 +9782,7 @@
         <v>13943.11892568512</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10539,7 +9815,7 @@
         <v>14189.43910352107</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10572,7 +9848,7 @@
         <v>13854.80200352107</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10605,7 +9881,7 @@
         <v>13044.93380352107</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10638,7 +9914,7 @@
         <v>12553.50210352107</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10671,7 +9947,7 @@
         <v>12564.84990352107</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10704,7 +9980,7 @@
         <v>12616.68840352107</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10737,7 +10013,7 @@
         <v>12630.73110352107</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10770,7 +10046,7 @@
         <v>13905.75969608308</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10803,7 +10079,7 @@
         <v>13760.52259608308</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10836,7 +10112,7 @@
         <v>13838.3829950551</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10869,7 +10145,7 @@
         <v>13776.0520950551</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10902,7 +10178,7 @@
         <v>13844.2841950551</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11529,7 +10805,7 @@
         <v>14704.29282275505</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11727,7 +11003,7 @@
         <v>14825.30225278958</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11925,7 +11201,7 @@
         <v>15391.97395110215</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11958,7 +11234,7 @@
         <v>15391.97395110215</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12057,7 +11333,7 @@
         <v>15141.35362524509</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12123,7 +11399,7 @@
         <v>15001.96122524509</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12156,7 +11432,7 @@
         <v>15084.66122524509</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12420,7 +11696,7 @@
         <v>15796.77182524509</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12717,7 +11993,7 @@
         <v>15666.52812524509</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12750,7 +12026,7 @@
         <v>15666.52812524509</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12816,7 +12092,7 @@
         <v>15867.21422524509</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12849,7 +12125,7 @@
         <v>15809.41252524509</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12882,7 +12158,7 @@
         <v>15536.11302524509</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12948,7 +12224,7 @@
         <v>15537.10442524509</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13080,7 +12356,7 @@
         <v>15491.44190432819</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13146,7 +12422,7 @@
         <v>15014.32190432819</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13179,7 +12455,7 @@
         <v>14982.72650432819</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13212,7 +12488,7 @@
         <v>14985.72500432819</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13245,7 +12521,7 @@
         <v>14985.72500432819</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13278,7 +12554,7 @@
         <v>14645.41670432819</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13311,7 +12587,7 @@
         <v>14645.41670432819</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13344,7 +12620,7 @@
         <v>14616.23290432818</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13377,7 +12653,7 @@
         <v>14588.11120432818</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13410,7 +12686,7 @@
         <v>14578.60630432818</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13443,7 +12719,7 @@
         <v>13791.03160432819</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13476,7 +12752,7 @@
         <v>13791.03160432819</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13509,7 +12785,7 @@
         <v>13791.03160432819</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13542,7 +12818,7 @@
         <v>13855.22190432819</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13575,7 +12851,7 @@
         <v>13875.22190432819</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13608,7 +12884,7 @@
         <v>13691.57790432819</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13641,7 +12917,7 @@
         <v>13625.95480432818</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13674,7 +12950,7 @@
         <v>13632.41660432818</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13707,7 +12983,7 @@
         <v>13588.01870432818</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13773,7 +13049,7 @@
         <v>13400.11660432818</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13839,7 +13115,7 @@
         <v>13401.94510432818</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -17205,7 +16481,7 @@
         <v>8435.547446396504</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17304,7 +16580,7 @@
         <v>9144.446836196032</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17337,7 +16613,7 @@
         <v>9144.446836196032</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17370,7 +16646,7 @@
         <v>8823.508236196032</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17403,7 +16679,7 @@
         <v>8824.508236196032</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17436,7 +16712,7 @@
         <v>8824.756036196031</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -22155,7 +21431,7 @@
         <v>5173.027602010493</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22188,7 +21464,7 @@
         <v>4594.415402010492</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22221,7 +21497,7 @@
         <v>4452.234802010493</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22650,14 +21926,10 @@
         <v>4592.719002010494</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>16650</v>
-      </c>
-      <c r="J651" t="n">
-        <v>16650</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
@@ -22687,19 +21959,11 @@
         <v>4392.659802010494</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>16560</v>
-      </c>
-      <c r="J652" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22728,19 +21992,11 @@
         <v>4391.479702010494</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>16550</v>
-      </c>
-      <c r="J653" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22769,19 +22025,11 @@
         <v>4391.479702010494</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>16530</v>
-      </c>
-      <c r="J654" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22813,14 +22061,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22852,14 +22094,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22891,14 +22127,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22930,14 +22160,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22969,14 +22193,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23005,17 +22223,11 @@
         <v>4355.281602010495</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23047,14 +22259,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23086,14 +22292,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23125,14 +22325,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23164,14 +22358,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23203,14 +22391,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23242,14 +22424,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23281,14 +22457,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23320,14 +22490,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23359,14 +22523,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23398,14 +22556,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23437,14 +22589,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23476,14 +22622,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23515,14 +22655,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23554,14 +22688,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23593,14 +22721,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23632,14 +22754,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23671,14 +22787,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23710,14 +22820,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23749,14 +22853,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23788,14 +22886,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23827,14 +22919,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23866,14 +22952,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23905,14 +22985,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23944,14 +23018,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23983,14 +23051,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24022,14 +23084,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24061,14 +23117,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24100,14 +23150,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24139,14 +23183,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24178,14 +23216,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24214,17 +23246,11 @@
         <v>3766.163702010494</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24253,17 +23279,11 @@
         <v>3776.226702010495</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24292,17 +23312,11 @@
         <v>3885.061402010494</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24331,17 +23345,11 @@
         <v>3886.239502010495</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24370,17 +23378,11 @@
         <v>4045.861702010494</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24409,17 +23411,11 @@
         <v>4045.861702010494</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24448,17 +23444,11 @@
         <v>4368.095202010494</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24487,17 +23477,11 @@
         <v>5170.496002010495</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24529,14 +23513,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24568,14 +23546,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24607,14 +23579,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24646,14 +23612,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24685,14 +23645,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24724,14 +23678,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24763,14 +23711,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24802,14 +23744,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24841,14 +23777,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24880,14 +23810,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24919,14 +23843,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24958,14 +23876,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24997,14 +23909,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25036,14 +23942,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25075,14 +23975,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25114,14 +24008,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25153,14 +24041,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25192,14 +24074,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25231,14 +24107,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25270,14 +24140,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25309,14 +24173,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25348,14 +24206,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25387,14 +24239,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25426,14 +24272,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25465,14 +24305,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25504,14 +24338,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25543,14 +24371,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25582,14 +24404,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25621,14 +24437,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25660,14 +24470,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25699,14 +24503,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25738,14 +24536,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25777,20 +24569,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>16650</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
       <c r="M731" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest REP.xlsx
+++ b/BackTest/2020-01-26 BackTest REP.xlsx
@@ -484,11 +484,17 @@
         <v>1939.647425692897</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15760</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -522,10 +528,12 @@
       <c r="I4" t="n">
         <v>15750</v>
       </c>
-      <c r="J4" t="n">
-        <v>15750</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -559,12 +567,10 @@
       <c r="I5" t="n">
         <v>15760</v>
       </c>
-      <c r="J5" t="n">
-        <v>15750</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -600,12 +606,10 @@
       <c r="I6" t="n">
         <v>15770</v>
       </c>
-      <c r="J6" t="n">
-        <v>15750</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -641,10 +645,12 @@
       <c r="I7" t="n">
         <v>15710</v>
       </c>
-      <c r="J7" t="n">
-        <v>15710</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -678,12 +684,10 @@
       <c r="I8" t="n">
         <v>15710</v>
       </c>
-      <c r="J8" t="n">
-        <v>15710</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -719,12 +723,10 @@
       <c r="I9" t="n">
         <v>15710</v>
       </c>
-      <c r="J9" t="n">
-        <v>15710</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -760,10 +762,12 @@
       <c r="I10" t="n">
         <v>15710</v>
       </c>
-      <c r="J10" t="n">
-        <v>15710</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -792,17 +796,13 @@
         <v>2306.799425692897</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -836,12 +836,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>15710</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -876,7 +874,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -909,7 +911,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -942,7 +948,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -975,7 +985,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,7 +1022,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,7 +1059,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1074,7 +1096,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1107,7 +1133,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1140,7 +1170,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1173,7 +1207,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1206,7 +1244,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1239,7 +1281,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1272,7 +1318,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1305,7 +1355,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1338,7 +1392,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1371,7 +1429,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1404,7 +1466,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1437,7 +1503,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1470,7 +1540,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1503,7 +1577,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1536,7 +1614,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1569,7 +1651,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1602,7 +1688,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1635,7 +1725,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1668,7 +1762,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1697,11 +1795,15 @@
         <v>2839.877325692898</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1730,11 +1832,15 @@
         <v>2836.346325692898</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1767,7 +1873,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1800,7 +1910,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1829,11 +1943,15 @@
         <v>2934.817725692898</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1862,11 +1980,15 @@
         <v>2934.817725692898</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1895,11 +2017,15 @@
         <v>2934.848625692898</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1928,11 +2054,15 @@
         <v>2934.848625692898</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1961,11 +2091,15 @@
         <v>2892.824825692898</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1994,11 +2128,15 @@
         <v>2880.074825692898</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2027,11 +2165,15 @@
         <v>2880.115725692898</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2060,11 +2202,15 @@
         <v>2880.115725692898</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2093,11 +2239,15 @@
         <v>2969.499425692898</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2126,11 +2276,15 @@
         <v>2969.560252943506</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2159,11 +2313,15 @@
         <v>2969.528452943506</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2350,15 @@
         <v>2966.022352943506</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2225,11 +2387,15 @@
         <v>2966.022352943506</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2258,11 +2424,15 @@
         <v>2966.053752943506</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2291,11 +2461,15 @@
         <v>2966.053752943506</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2324,11 +2498,15 @@
         <v>2923.490952943505</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2361,7 +2539,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2394,7 +2576,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2427,7 +2613,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2460,7 +2650,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2493,7 +2687,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2526,7 +2724,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2559,7 +2761,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2592,7 +2798,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2625,7 +2835,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2658,7 +2872,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2691,7 +2909,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2724,7 +2946,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2757,7 +2983,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2790,7 +3020,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2823,7 +3057,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2856,7 +3094,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2889,7 +3131,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2922,7 +3168,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2955,7 +3205,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2988,7 +3242,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3017,11 +3275,15 @@
         <v>9705.343325692897</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3050,11 +3312,15 @@
         <v>9963.073225692897</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3083,11 +3349,15 @@
         <v>10655.56454091163</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3116,11 +3386,15 @@
         <v>10590.36924091163</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3149,11 +3423,15 @@
         <v>10360.1871889042</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3182,11 +3460,15 @@
         <v>10568.9699889042</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3215,11 +3497,15 @@
         <v>10916.6552889042</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3248,11 +3534,15 @@
         <v>10638.80350794345</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3281,11 +3571,15 @@
         <v>10638.80350794345</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +3608,15 @@
         <v>10587.19335829639</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3347,11 +3645,15 @@
         <v>10307.10346989663</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3380,11 +3682,15 @@
         <v>10375.81738883962</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3413,11 +3719,15 @@
         <v>10335.32506577185</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3446,11 +3756,15 @@
         <v>10261.70396577185</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3479,11 +3793,15 @@
         <v>10307.51066577184</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3512,11 +3830,15 @@
         <v>10569.48696577184</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3545,11 +3867,15 @@
         <v>10576.27426577184</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3578,11 +3904,15 @@
         <v>10624.26466577185</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3611,11 +3941,15 @@
         <v>10624.26466577185</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3644,11 +3978,15 @@
         <v>10696.87826577185</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3677,11 +4015,15 @@
         <v>10644.00036577185</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3710,11 +4052,15 @@
         <v>10628.52496577185</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3743,11 +4089,15 @@
         <v>10649.09396577185</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3776,11 +4126,15 @@
         <v>10654.82066577185</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3809,11 +4163,15 @@
         <v>10654.82066577185</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3842,11 +4200,15 @@
         <v>10357.62916577184</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3875,11 +4237,15 @@
         <v>10357.62916577184</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3908,11 +4274,15 @@
         <v>10369.54126577184</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3941,11 +4311,15 @@
         <v>10369.54126577184</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3974,11 +4348,15 @@
         <v>11084.35926577184</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4007,11 +4385,15 @@
         <v>11084.35926577184</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4040,11 +4422,15 @@
         <v>11176.75176577184</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4073,11 +4459,15 @@
         <v>11191.98186577184</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4106,11 +4496,15 @@
         <v>11543.39756577184</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4139,11 +4533,15 @@
         <v>11684.74526577184</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4172,11 +4570,15 @@
         <v>11761.74506577184</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4209,7 +4611,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4242,7 +4648,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4275,7 +4685,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4722,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4337,11 +4755,15 @@
         <v>12442.26476623723</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4370,11 +4792,15 @@
         <v>13151.65984847219</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4403,11 +4829,15 @@
         <v>12870.55014847219</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4436,11 +4866,15 @@
         <v>12914.88544847219</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4469,11 +4903,15 @@
         <v>13230.52044847219</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4502,11 +4940,15 @@
         <v>13230.52044847219</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4535,11 +4977,15 @@
         <v>13301.59734847219</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4572,7 +5018,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4605,7 +5055,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4638,7 +5092,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4667,14 +5125,16 @@
         <v>16408.51914691907</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
@@ -4700,7 +5160,7 @@
         <v>16267.11964691907</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4733,7 +5193,7 @@
         <v>16267.18074691907</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -6845,7 +7305,7 @@
         <v>14055.01928008236</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6878,7 +7338,7 @@
         <v>14061.71244597831</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6911,7 +7371,7 @@
         <v>14021.12504597831</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6944,7 +7404,7 @@
         <v>14211.80014597831</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6977,7 +7437,7 @@
         <v>14232.79834597831</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8363,7 +8823,7 @@
         <v>15404.65330240719</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8396,7 +8856,7 @@
         <v>15642.49885016504</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8495,7 +8955,7 @@
         <v>15974.01806695332</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8528,7 +8988,7 @@
         <v>16243.07789363216</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8561,7 +9021,7 @@
         <v>18432.41284310114</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8594,7 +9054,7 @@
         <v>17238.23764443447</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8627,7 +9087,7 @@
         <v>16993.4521234228</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8660,7 +9120,7 @@
         <v>17198.6282234228</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8693,7 +9153,7 @@
         <v>17329.6739234228</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8726,7 +9186,7 @@
         <v>17329.6739234228</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8759,7 +9219,7 @@
         <v>18007.63285174138</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8792,7 +9252,7 @@
         <v>17968.08395174138</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8825,7 +9285,7 @@
         <v>17875.82215174138</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8858,7 +9318,7 @@
         <v>17232.97065174138</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8891,7 +9351,7 @@
         <v>17329.92045174138</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8924,7 +9384,7 @@
         <v>17260.51624268604</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8957,7 +9417,7 @@
         <v>16993.14064268604</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8990,7 +9450,7 @@
         <v>17280.53554268604</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9023,7 +9483,7 @@
         <v>16992.45514268604</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9056,7 +9516,7 @@
         <v>16992.45514268604</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9089,7 +9549,7 @@
         <v>17214.01264268604</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9122,7 +9582,7 @@
         <v>17341.38554268604</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9155,7 +9615,7 @@
         <v>18090.62084268604</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9188,7 +9648,7 @@
         <v>17040.59854268604</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9221,7 +9681,7 @@
         <v>17412.56014268604</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9254,7 +9714,7 @@
         <v>17145.70684268604</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9287,7 +9747,7 @@
         <v>17354.69168781482</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9320,7 +9780,7 @@
         <v>17193.29718781482</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9353,7 +9813,7 @@
         <v>17173.35958781482</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9386,7 +9846,7 @@
         <v>16701.49708781482</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9419,7 +9879,7 @@
         <v>15647.33518781482</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9452,7 +9912,7 @@
         <v>14855.75528781482</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -16481,7 +16941,7 @@
         <v>8435.547446396504</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16580,7 +17040,7 @@
         <v>9144.446836196032</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16613,7 +17073,7 @@
         <v>9144.446836196032</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16646,7 +17106,7 @@
         <v>8823.508236196032</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16679,7 +17139,7 @@
         <v>8824.508236196032</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16712,7 +17172,7 @@
         <v>8824.756036196031</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -21431,7 +21891,7 @@
         <v>5173.027602010493</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21464,7 +21924,7 @@
         <v>4594.415402010492</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21497,7 +21957,7 @@
         <v>4452.234802010493</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21926,7 +22386,7 @@
         <v>4592.719002010494</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22223,7 +22683,7 @@
         <v>4355.281602010495</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23246,7 +23706,7 @@
         <v>3766.163702010494</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23279,7 +23739,7 @@
         <v>3776.226702010495</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23312,7 +23772,7 @@
         <v>3885.061402010494</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23345,7 +23805,7 @@
         <v>3886.239502010495</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23378,7 +23838,7 @@
         <v>4045.861702010494</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23411,7 +23871,7 @@
         <v>4045.861702010494</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23444,7 +23904,7 @@
         <v>4368.095202010494</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23477,7 +23937,7 @@
         <v>5170.496002010495</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
